--- a/va_facility_data_2025-02-20/Childersburg VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Childersburg%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Childersburg VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Childersburg%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R538298a03a164070a663da99a5b4a890"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3517fc266d954a6b9889b38c097b9267"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rce8ffc7f19284df3b83492a1e0f56f8a"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rf659ffeab64a419bbd9acc1eac599108"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R83881062a60e40ed84d3e2fe1d031790"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Red2924d1f3254427962344ae021d7dbc"/>
   </x:sheets>
 </x:workbook>
 </file>
